--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd22-Ptprc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd22-Ptprc.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.319497666666667</v>
+        <v>1.050658666666667</v>
       </c>
       <c r="H2">
-        <v>27.958493</v>
+        <v>3.151976</v>
       </c>
       <c r="I2">
-        <v>0.4629603708903242</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="J2">
-        <v>0.4629603708903243</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2529583333333333</v>
+        <v>2.423038333333333</v>
       </c>
       <c r="N2">
-        <v>0.7588750000000001</v>
+        <v>7.269115</v>
       </c>
       <c r="O2">
-        <v>0.0001995854867641919</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="P2">
-        <v>0.000199585486764192</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="Q2">
-        <v>2.357444597263889</v>
+        <v>2.545786224582223</v>
       </c>
       <c r="R2">
-        <v>21.217001375375</v>
+        <v>22.91207602124</v>
       </c>
       <c r="S2">
-        <v>9.24001709766762E-05</v>
+        <v>0.0003381117769975488</v>
       </c>
       <c r="T2">
-        <v>9.240017097667623E-05</v>
+        <v>0.0003381117769975486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.319497666666667</v>
+        <v>1.050658666666667</v>
       </c>
       <c r="H3">
-        <v>27.958493</v>
+        <v>3.151976</v>
       </c>
       <c r="I3">
-        <v>0.4629603708903242</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="J3">
-        <v>0.4629603708903243</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.069411</v>
       </c>
       <c r="O3">
-        <v>1.825521755465568E-05</v>
+        <v>2.132067390877311E-05</v>
       </c>
       <c r="P3">
-        <v>1.825521755465568E-05</v>
+        <v>2.13206739087731E-05</v>
       </c>
       <c r="Q3">
-        <v>0.2156252175136667</v>
+        <v>0.02430908957066667</v>
       </c>
       <c r="R3">
-        <v>1.940626957623</v>
+        <v>0.218781806136</v>
       </c>
       <c r="S3">
-        <v>8.451442289786949E-06</v>
+        <v>3.228546604803591E-06</v>
       </c>
       <c r="T3">
-        <v>8.451442289786951E-06</v>
+        <v>3.22854660480359E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.319497666666667</v>
+        <v>1.050658666666667</v>
       </c>
       <c r="H4">
-        <v>27.958493</v>
+        <v>3.151976</v>
       </c>
       <c r="I4">
-        <v>0.4629603708903242</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="J4">
-        <v>0.4629603708903243</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>307.5605876666667</v>
+        <v>280.561096</v>
       </c>
       <c r="N4">
-        <v>922.681763</v>
+        <v>841.6832879999999</v>
       </c>
       <c r="O4">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="P4">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="Q4">
-        <v>2866.310179118129</v>
+        <v>294.7739470418987</v>
       </c>
       <c r="R4">
-        <v>25796.79161206316</v>
+        <v>2652.965523377088</v>
       </c>
       <c r="S4">
-        <v>0.112345185515745</v>
+        <v>0.03914961204697127</v>
       </c>
       <c r="T4">
-        <v>0.1123451855157451</v>
+        <v>0.03914961204697126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.319497666666667</v>
+        <v>1.050658666666667</v>
       </c>
       <c r="H5">
-        <v>27.958493</v>
+        <v>3.151976</v>
       </c>
       <c r="I5">
-        <v>0.4629603708903242</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="J5">
-        <v>0.4629603708903243</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.007196999999999999</v>
+        <v>0.028388</v>
       </c>
       <c r="N5">
-        <v>0.021591</v>
+        <v>0.085164</v>
       </c>
       <c r="O5">
-        <v>5.678471743996927E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="P5">
-        <v>5.678471743996928E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="Q5">
-        <v>0.06707242470699999</v>
+        <v>0.02982609822933334</v>
       </c>
       <c r="R5">
-        <v>0.603651822363</v>
+        <v>0.268434884064</v>
       </c>
       <c r="S5">
-        <v>2.628907384691043E-06</v>
+        <v>3.961273329176831E-06</v>
       </c>
       <c r="T5">
-        <v>2.628907384691044E-06</v>
+        <v>3.96127332917683E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.319497666666667</v>
+        <v>1.050658666666667</v>
       </c>
       <c r="H6">
-        <v>27.958493</v>
+        <v>3.151976</v>
       </c>
       <c r="I6">
-        <v>0.4629603708903242</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="J6">
-        <v>0.4629603708903243</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>568.7975463333333</v>
+        <v>683.8555499999999</v>
       </c>
       <c r="N6">
-        <v>1706.392639</v>
+        <v>2051.56665</v>
       </c>
       <c r="O6">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="P6">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="Q6">
-        <v>5300.907405859225</v>
+        <v>718.4987603556</v>
       </c>
       <c r="R6">
-        <v>47708.16665273302</v>
+        <v>6466.4888432004</v>
       </c>
       <c r="S6">
-        <v>0.207769358058892</v>
+        <v>0.09542548792534002</v>
       </c>
       <c r="T6">
-        <v>0.2077693580588921</v>
+        <v>0.09542548792533999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.319497666666667</v>
+        <v>1.050658666666667</v>
       </c>
       <c r="H7">
-        <v>27.958493</v>
+        <v>3.151976</v>
       </c>
       <c r="I7">
-        <v>0.4629603708903242</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="J7">
-        <v>0.4629603708903243</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>390.777049</v>
+        <v>118.2996293333333</v>
       </c>
       <c r="N7">
-        <v>1172.331147</v>
+        <v>354.898888</v>
       </c>
       <c r="O7">
-        <v>0.3083251953520915</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="P7">
-        <v>0.3083251953520916</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="Q7">
-        <v>3641.845796342386</v>
+        <v>124.2925308225209</v>
       </c>
       <c r="R7">
-        <v>32776.61216708148</v>
+        <v>1118.632777402688</v>
       </c>
       <c r="S7">
-        <v>0.1427423467950359</v>
+        <v>0.0165075794888558</v>
       </c>
       <c r="T7">
-        <v>0.142742346795036</v>
+        <v>0.01650757948885579</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7152593333333334</v>
+        <v>0.8776213333333334</v>
       </c>
       <c r="H8">
-        <v>2.145778</v>
+        <v>2.632864</v>
       </c>
       <c r="I8">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="J8">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2529583333333333</v>
+        <v>2.423038333333333</v>
       </c>
       <c r="N8">
-        <v>0.7588750000000001</v>
+        <v>7.269115</v>
       </c>
       <c r="O8">
-        <v>0.0001995854867641919</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="P8">
-        <v>0.000199585486764192</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="Q8">
-        <v>0.1809308088611111</v>
+        <v>2.126510132817778</v>
       </c>
       <c r="R8">
-        <v>1.62837727975</v>
+        <v>19.13859119536</v>
       </c>
       <c r="S8">
-        <v>7.091593029638267E-06</v>
+        <v>0.0002824267461531668</v>
       </c>
       <c r="T8">
-        <v>7.09159302963827E-06</v>
+        <v>0.0002824267461531667</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7152593333333334</v>
+        <v>0.8776213333333334</v>
       </c>
       <c r="H9">
-        <v>2.145778</v>
+        <v>2.632864</v>
       </c>
       <c r="I9">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="J9">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.069411</v>
       </c>
       <c r="O9">
-        <v>1.825521755465568E-05</v>
+        <v>2.132067390877311E-05</v>
       </c>
       <c r="P9">
-        <v>1.825521755465568E-05</v>
+        <v>2.13206739087731E-05</v>
       </c>
       <c r="Q9">
-        <v>0.01654895519533333</v>
+        <v>0.02030552478933334</v>
       </c>
       <c r="R9">
-        <v>0.148940596758</v>
+        <v>0.182749723104</v>
       </c>
       <c r="S9">
-        <v>6.48637211372389E-07</v>
+        <v>2.696823874328231E-06</v>
       </c>
       <c r="T9">
-        <v>6.486372113723892E-07</v>
+        <v>2.696823874328231E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7152593333333334</v>
+        <v>0.8776213333333334</v>
       </c>
       <c r="H10">
-        <v>2.145778</v>
+        <v>2.632864</v>
       </c>
       <c r="I10">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="J10">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>307.5605876666667</v>
+        <v>280.561096</v>
       </c>
       <c r="N10">
-        <v>922.681763</v>
+        <v>841.6832879999999</v>
       </c>
       <c r="O10">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="P10">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="Q10">
-        <v>219.9855808940682</v>
+        <v>246.2264031529813</v>
       </c>
       <c r="R10">
-        <v>1979.870228046614</v>
+        <v>2216.037628376832</v>
       </c>
       <c r="S10">
-        <v>0.008622346972907459</v>
+        <v>0.03270190006917468</v>
       </c>
       <c r="T10">
-        <v>0.008622346972907461</v>
+        <v>0.03270190006917468</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7152593333333334</v>
+        <v>0.8776213333333334</v>
       </c>
       <c r="H11">
-        <v>2.145778</v>
+        <v>2.632864</v>
       </c>
       <c r="I11">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="J11">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.007196999999999999</v>
+        <v>0.028388</v>
       </c>
       <c r="N11">
-        <v>0.021591</v>
+        <v>0.085164</v>
       </c>
       <c r="O11">
-        <v>5.678471743996927E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="P11">
-        <v>5.678471743996928E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="Q11">
-        <v>0.005147721422</v>
+        <v>0.02491391441066667</v>
       </c>
       <c r="R11">
-        <v>0.046329492798</v>
+        <v>0.224225229696</v>
       </c>
       <c r="S11">
-        <v>2.01765224975022E-07</v>
+        <v>3.3088747955409E-06</v>
       </c>
       <c r="T11">
-        <v>2.017652249750221E-07</v>
+        <v>3.3088747955409E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7152593333333334</v>
+        <v>0.8776213333333334</v>
       </c>
       <c r="H12">
-        <v>2.145778</v>
+        <v>2.632864</v>
       </c>
       <c r="I12">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="J12">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>568.7975463333333</v>
+        <v>683.8555499999999</v>
       </c>
       <c r="N12">
-        <v>1706.392639</v>
+        <v>2051.56665</v>
       </c>
       <c r="O12">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="P12">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="Q12">
-        <v>406.8377537920158</v>
+        <v>600.1662195983999</v>
       </c>
       <c r="R12">
-        <v>3661.539784128142</v>
+        <v>5401.4959763856</v>
       </c>
       <c r="S12">
-        <v>0.01594602819246707</v>
+        <v>0.07970946854958995</v>
       </c>
       <c r="T12">
-        <v>0.01594602819246707</v>
+        <v>0.07970946854958995</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7152593333333334</v>
+        <v>0.8776213333333334</v>
       </c>
       <c r="H13">
-        <v>2.145778</v>
+        <v>2.632864</v>
       </c>
       <c r="I13">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="J13">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>390.777049</v>
+        <v>118.2996293333333</v>
       </c>
       <c r="N13">
-        <v>1172.331147</v>
+        <v>354.898888</v>
       </c>
       <c r="O13">
-        <v>0.3083251953520915</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="P13">
-        <v>0.3083251953520916</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="Q13">
-        <v>279.5069315497074</v>
+        <v>103.8222784283591</v>
       </c>
       <c r="R13">
-        <v>2515.562383947366</v>
+        <v>934.400505855232</v>
       </c>
       <c r="S13">
-        <v>0.01095528959379744</v>
+        <v>0.01378887775901429</v>
       </c>
       <c r="T13">
-        <v>0.01095528959379745</v>
+        <v>0.01378887775901429</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.09547066666667</v>
+        <v>5.010059000000001</v>
       </c>
       <c r="H14">
-        <v>30.286412</v>
+        <v>15.030177</v>
       </c>
       <c r="I14">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192995</v>
       </c>
       <c r="J14">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192994</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2529583333333333</v>
+        <v>2.423038333333333</v>
       </c>
       <c r="N14">
-        <v>0.7588750000000001</v>
+        <v>7.269115</v>
       </c>
       <c r="O14">
-        <v>0.0001995854867641919</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="P14">
-        <v>0.000199585486764192</v>
+        <v>0.002232822326725897</v>
       </c>
       <c r="Q14">
-        <v>2.553733434055556</v>
+        <v>12.13956500926167</v>
       </c>
       <c r="R14">
-        <v>22.9836009065</v>
+        <v>109.256085083355</v>
       </c>
       <c r="S14">
-        <v>0.0001000937227578775</v>
+        <v>0.001612283803575182</v>
       </c>
       <c r="T14">
-        <v>0.0001000937227578775</v>
+        <v>0.001612283803575181</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.09547066666667</v>
+        <v>5.010059000000001</v>
       </c>
       <c r="H15">
-        <v>30.286412</v>
+        <v>15.030177</v>
       </c>
       <c r="I15">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192995</v>
       </c>
       <c r="J15">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192994</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.069411</v>
       </c>
       <c r="O15">
-        <v>1.825521755465568E-05</v>
+        <v>2.132067390877311E-05</v>
       </c>
       <c r="P15">
-        <v>1.825521755465568E-05</v>
+        <v>2.13206739087731E-05</v>
       </c>
       <c r="Q15">
-        <v>0.2335789048146667</v>
+        <v>0.115917735083</v>
       </c>
       <c r="R15">
-        <v>2.102210143332</v>
+        <v>1.043259615747</v>
       </c>
       <c r="S15">
-        <v>9.155138053496338E-06</v>
+        <v>1.539530342964129E-05</v>
       </c>
       <c r="T15">
-        <v>9.155138053496338E-06</v>
+        <v>1.539530342964128E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.09547066666667</v>
+        <v>5.010059000000001</v>
       </c>
       <c r="H16">
-        <v>30.286412</v>
+        <v>15.030177</v>
       </c>
       <c r="I16">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192995</v>
       </c>
       <c r="J16">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192994</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>307.5605876666667</v>
+        <v>280.561096</v>
       </c>
       <c r="N16">
-        <v>922.681763</v>
+        <v>841.6832879999999</v>
       </c>
       <c r="O16">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="P16">
-        <v>0.2426669593764425</v>
+        <v>0.2585361818431078</v>
       </c>
       <c r="Q16">
-        <v>3104.968891011595</v>
+        <v>1405.627644064664</v>
       </c>
       <c r="R16">
-        <v>27944.72001910436</v>
+        <v>12650.64879658198</v>
       </c>
       <c r="S16">
-        <v>0.12169942688779</v>
+        <v>0.1866846697269619</v>
       </c>
       <c r="T16">
-        <v>0.12169942688779</v>
+        <v>0.1866846697269619</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.09547066666667</v>
+        <v>5.010059000000001</v>
       </c>
       <c r="H17">
-        <v>30.286412</v>
+        <v>15.030177</v>
       </c>
       <c r="I17">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192995</v>
       </c>
       <c r="J17">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192994</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.007196999999999999</v>
+        <v>0.028388</v>
       </c>
       <c r="N17">
-        <v>0.021591</v>
+        <v>0.085164</v>
       </c>
       <c r="O17">
-        <v>5.678471743996927E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="P17">
-        <v>5.678471743996928E-06</v>
+        <v>2.615945416096516E-05</v>
       </c>
       <c r="Q17">
-        <v>0.07265710238799999</v>
+        <v>0.142225554892</v>
       </c>
       <c r="R17">
-        <v>0.653913921492</v>
+        <v>1.280029994028</v>
       </c>
       <c r="S17">
-        <v>2.847799134330861E-06</v>
+        <v>1.888930603624743E-05</v>
       </c>
       <c r="T17">
-        <v>2.847799134330862E-06</v>
+        <v>1.888930603624743E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.09547066666667</v>
+        <v>5.010059000000001</v>
       </c>
       <c r="H18">
-        <v>30.286412</v>
+        <v>15.030177</v>
       </c>
       <c r="I18">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192995</v>
       </c>
       <c r="J18">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192994</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>568.7975463333333</v>
+        <v>683.8555499999999</v>
       </c>
       <c r="N18">
-        <v>1706.392639</v>
+        <v>2051.56665</v>
       </c>
       <c r="O18">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="P18">
-        <v>0.4487843260954031</v>
+        <v>0.630170773317832</v>
       </c>
       <c r="Q18">
-        <v>5742.278944280141</v>
+        <v>3426.15665297745</v>
       </c>
       <c r="R18">
-        <v>51680.51049852127</v>
+        <v>30835.40987679705</v>
       </c>
       <c r="S18">
-        <v>0.225068939844044</v>
+        <v>0.4550358168429021</v>
       </c>
       <c r="T18">
-        <v>0.225068939844044</v>
+        <v>0.455035816842902</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.09547066666667</v>
+        <v>5.010059000000001</v>
       </c>
       <c r="H19">
-        <v>30.286412</v>
+        <v>15.030177</v>
       </c>
       <c r="I19">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192995</v>
       </c>
       <c r="J19">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192994</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>390.777049</v>
+        <v>118.2996293333333</v>
       </c>
       <c r="N19">
-        <v>1172.331147</v>
+        <v>354.898888</v>
       </c>
       <c r="O19">
-        <v>0.3083251953520915</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="P19">
-        <v>0.3083251953520916</v>
+        <v>0.1090127423842646</v>
       </c>
       <c r="Q19">
-        <v>3945.078235386063</v>
+        <v>592.6881226381307</v>
       </c>
       <c r="R19">
-        <v>35505.70411847457</v>
+        <v>5334.193103743177</v>
       </c>
       <c r="S19">
-        <v>0.1546275589632581</v>
+        <v>0.07871628513639449</v>
       </c>
       <c r="T19">
-        <v>0.1546275589632581</v>
+        <v>0.07871628513639448</v>
       </c>
     </row>
   </sheetData>
